--- a/Output/oil_data_72_2023.xlsx
+++ b/Output/oil_data_72_2023.xlsx
@@ -374,7 +374,7 @@
         <v>1972</v>
       </c>
       <c r="B2">
-        <v>28578</v>
+        <v>28578000</v>
       </c>
     </row>
     <row r="3">
@@ -382,7 +382,7 @@
         <v>1973</v>
       </c>
       <c r="B3">
-        <v>76221</v>
+        <v>76221000</v>
       </c>
     </row>
     <row r="4">
@@ -390,7 +390,7 @@
         <v>1974</v>
       </c>
       <c r="B4">
-        <v>64615</v>
+        <v>64615000</v>
       </c>
     </row>
     <row r="5">
@@ -398,7 +398,7 @@
         <v>1975</v>
       </c>
       <c r="B5">
-        <v>58732</v>
+        <v>58732000</v>
       </c>
     </row>
     <row r="6">
@@ -406,7 +406,7 @@
         <v>1976</v>
       </c>
       <c r="B6">
-        <v>68267</v>
+        <v>68267000</v>
       </c>
     </row>
     <row r="7">
@@ -414,7 +414,7 @@
         <v>1977</v>
       </c>
       <c r="B7">
-        <v>66598</v>
+        <v>66598000</v>
       </c>
     </row>
     <row r="8">
@@ -422,7 +422,7 @@
         <v>1978</v>
       </c>
       <c r="B8">
-        <v>73654</v>
+        <v>73654000</v>
       </c>
     </row>
     <row r="9">
@@ -430,7 +430,7 @@
         <v>1979</v>
       </c>
       <c r="B9">
-        <v>78183</v>
+        <v>78183000</v>
       </c>
     </row>
     <row r="10">
@@ -438,7 +438,7 @@
         <v>1980</v>
       </c>
       <c r="B10">
-        <v>74622</v>
+        <v>74622000</v>
       </c>
     </row>
     <row r="11">
@@ -446,7 +446,7 @@
         <v>1981</v>
       </c>
       <c r="B11">
-        <v>76698</v>
+        <v>76698000</v>
       </c>
     </row>
     <row r="12">
@@ -454,7 +454,7 @@
         <v>1982</v>
       </c>
       <c r="B12">
-        <v>77001</v>
+        <v>77001000</v>
       </c>
     </row>
     <row r="13">
@@ -462,7 +462,7 @@
         <v>1983</v>
       </c>
       <c r="B13">
-        <v>86378</v>
+        <v>86378000</v>
       </c>
     </row>
     <row r="14">
@@ -470,7 +470,7 @@
         <v>1984</v>
       </c>
       <c r="B14">
-        <v>93664</v>
+        <v>93664000</v>
       </c>
     </row>
     <row r="15">
@@ -478,7 +478,7 @@
         <v>1985</v>
       </c>
       <c r="B15">
-        <v>102071</v>
+        <v>102071000</v>
       </c>
     </row>
     <row r="16">
@@ -486,7 +486,7 @@
         <v>1986</v>
       </c>
       <c r="B16">
-        <v>106311</v>
+        <v>106311000</v>
       </c>
     </row>
     <row r="17">
@@ -494,7 +494,7 @@
         <v>1987</v>
       </c>
       <c r="B17">
-        <v>63115</v>
+        <v>63115000</v>
       </c>
     </row>
     <row r="18">
@@ -502,7 +502,7 @@
         <v>1988</v>
       </c>
       <c r="B18">
-        <v>110864</v>
+        <v>110864000</v>
       </c>
     </row>
     <row r="19">
@@ -510,7 +510,7 @@
         <v>1989</v>
       </c>
       <c r="B19">
-        <v>101838</v>
+        <v>101838000</v>
       </c>
     </row>
     <row r="20">
@@ -518,7 +518,7 @@
         <v>1990</v>
       </c>
       <c r="B20">
-        <v>104294</v>
+        <v>104294000</v>
       </c>
     </row>
     <row r="21">
@@ -526,7 +526,7 @@
         <v>1991</v>
       </c>
       <c r="B21">
-        <v>108568</v>
+        <v>108568000</v>
       </c>
     </row>
     <row r="22">
@@ -534,7 +534,7 @@
         <v>1992</v>
       </c>
       <c r="B22">
-        <v>116549</v>
+        <v>116549000</v>
       </c>
     </row>
     <row r="23">
@@ -542,7 +542,7 @@
         <v>1993</v>
       </c>
       <c r="B23">
-        <v>123812</v>
+        <v>123812000</v>
       </c>
     </row>
     <row r="24">
@@ -550,7 +550,7 @@
         <v>1994</v>
       </c>
       <c r="B24">
-        <v>138265</v>
+        <v>138265000</v>
       </c>
     </row>
     <row r="25">
@@ -558,7 +558,7 @@
         <v>1995</v>
       </c>
       <c r="B25">
-        <v>143223</v>
+        <v>143223000</v>
       </c>
     </row>
     <row r="26">
@@ -566,7 +566,7 @@
         <v>1996</v>
       </c>
       <c r="B26">
-        <v>140571</v>
+        <v>140571000</v>
       </c>
     </row>
     <row r="27">
@@ -574,7 +574,7 @@
         <v>1997</v>
       </c>
       <c r="B27">
-        <v>142126</v>
+        <v>142126000</v>
       </c>
     </row>
     <row r="28">
@@ -582,7 +582,7 @@
         <v>1998</v>
       </c>
       <c r="B28">
-        <v>137389</v>
+        <v>137389000</v>
       </c>
     </row>
     <row r="29">
@@ -590,7 +590,7 @@
         <v>1999</v>
       </c>
       <c r="B29">
-        <v>137136</v>
+        <v>137136000</v>
       </c>
     </row>
     <row r="30">
@@ -598,7 +598,7 @@
         <v>2000</v>
       </c>
       <c r="B30">
-        <v>146209.13</v>
+        <v>146209130</v>
       </c>
     </row>
     <row r="31">
@@ -606,7 +606,7 @@
         <v>2001</v>
       </c>
       <c r="B31">
-        <v>148746.339</v>
+        <v>148746339</v>
       </c>
     </row>
     <row r="32">
@@ -614,7 +614,7 @@
         <v>2002</v>
       </c>
       <c r="B32">
-        <v>143121</v>
+        <v>143121000</v>
       </c>
     </row>
     <row r="33">
@@ -622,7 +622,7 @@
         <v>2003</v>
       </c>
       <c r="B33">
-        <v>153518.2908</v>
+        <v>153518290.8</v>
       </c>
     </row>
     <row r="34">
@@ -630,7 +630,7 @@
         <v>2004</v>
       </c>
       <c r="B34">
-        <v>192382.80387</v>
+        <v>192382803.87</v>
       </c>
     </row>
     <row r="35">
@@ -638,7 +638,7 @@
         <v>2005</v>
       </c>
       <c r="B35">
-        <v>194171.79702</v>
+        <v>194171797.02</v>
       </c>
     </row>
     <row r="36">
@@ -646,7 +646,7 @@
         <v>2006</v>
       </c>
       <c r="B36">
-        <v>195650.92137</v>
+        <v>195650921.37</v>
       </c>
     </row>
     <row r="37">
@@ -654,7 +654,7 @@
         <v>2007</v>
       </c>
       <c r="B37">
-        <v>186547.13075</v>
+        <v>186547130.75</v>
       </c>
     </row>
     <row r="38">
@@ -662,7 +662,7 @@
         <v>2008</v>
       </c>
       <c r="B38">
-        <v>184727.880866</v>
+        <v>184727880.866</v>
       </c>
     </row>
     <row r="39">
@@ -670,7 +670,7 @@
         <v>2009</v>
       </c>
       <c r="B39">
-        <v>177414.404796333</v>
+        <v>177414404.796333</v>
       </c>
     </row>
     <row r="40">
@@ -678,7 +678,7 @@
         <v>2010</v>
       </c>
       <c r="B40">
-        <v>177421.758702</v>
+        <v>177421758.702</v>
       </c>
     </row>
     <row r="41">
@@ -686,7 +686,7 @@
         <v>2011</v>
       </c>
       <c r="B41">
-        <v>182356.92706</v>
+        <v>182356927.06</v>
       </c>
     </row>
     <row r="42">
@@ -694,7 +694,7 @@
         <v>2012</v>
       </c>
       <c r="B42">
-        <v>184323.286027</v>
+        <v>184323286.027</v>
       </c>
     </row>
     <row r="43">
@@ -702,7 +702,7 @@
         <v>2013</v>
       </c>
       <c r="B43">
-        <v>192116.68317</v>
+        <v>192116683.17</v>
       </c>
     </row>
     <row r="44">
@@ -710,7 +710,7 @@
         <v>2014</v>
       </c>
       <c r="B44">
-        <v>203075.071858</v>
+        <v>203075071.858</v>
       </c>
     </row>
     <row r="45">
@@ -718,7 +718,7 @@
         <v>2015</v>
       </c>
       <c r="B45">
-        <v>198229.6161</v>
+        <v>198229616.1</v>
       </c>
     </row>
     <row r="46">
@@ -726,7 +726,7 @@
         <v>2016</v>
       </c>
       <c r="B46">
-        <v>200729.498511</v>
+        <v>200729498.511</v>
       </c>
     </row>
     <row r="47">
@@ -734,7 +734,7 @@
         <v>2017</v>
       </c>
       <c r="B47">
-        <v>193927.090067</v>
+        <v>193927090.067</v>
       </c>
     </row>
     <row r="48">
@@ -742,7 +742,7 @@
         <v>2018</v>
       </c>
       <c r="B48">
-        <v>188792.489683</v>
+        <v>188792489.683</v>
       </c>
     </row>
     <row r="49">
@@ -750,7 +750,7 @@
         <v>2019</v>
       </c>
       <c r="B49">
-        <v>193816.083179</v>
+        <v>193816083.179</v>
       </c>
     </row>
     <row r="50">
@@ -758,7 +758,7 @@
         <v>2020</v>
       </c>
       <c r="B50">
-        <v>175449.72155</v>
+        <v>175449721.55</v>
       </c>
     </row>
     <row r="51">
@@ -766,7 +766,7 @@
         <v>2021</v>
       </c>
       <c r="B51">
-        <v>172601.626627</v>
+        <v>172601626.627</v>
       </c>
     </row>
     <row r="52">
@@ -774,7 +774,7 @@
         <v>2022</v>
       </c>
       <c r="B52">
-        <v>175549.12925</v>
+        <v>175549129.25</v>
       </c>
     </row>
     <row r="53">
@@ -782,7 +782,7 @@
         <v>2023</v>
       </c>
       <c r="B53">
-        <v>173475.142805</v>
+        <v>173475142.805</v>
       </c>
     </row>
   </sheetData>
